--- a/abc/abc-excel-import-demo/src/main/resources/example01.xlsx
+++ b/abc/abc-excel-import-demo/src/main/resources/example01.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\abc-cloud\abc\abc-excel-import-demo\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59E7451-B224-45DA-81CB-1A792DE728C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7460E5C1-D0E5-4DF7-89E6-52C5239B3EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-110" windowWidth="24870" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +46,50 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">hello,world    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999.1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           13354681245      </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  是                       </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                      是    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            12.600000000      </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年5月13日22:25:15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -53,7 +98,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -91,11 +136,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -376,21 +425,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.4140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="23.58203125" customWidth="1"/>
     <col min="3" max="3" width="26.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -409,6 +458,90 @@
       </c>
       <c r="C2" s="2">
         <v>44686.508495370399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>13354681245</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44686.508495370399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>12.33</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44686.508495370399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44686.50849537037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44686.50849537037</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>12.4999</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44686.50849537037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44686.50849537037</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44686.50849537037</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -416,4 +549,63 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D744546B-9D42-4218-B4CB-E8545560FC4B}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44907</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/abc/abc-excel-import-demo/src/main/resources/example01.xlsx
+++ b/abc/abc-excel-import-demo/src/main/resources/example01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\abc-cloud\abc\abc-excel-import-demo\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7460E5C1-D0E5-4DF7-89E6-52C5239B3EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1FC0FD-3194-4BA9-BD30-90A8608D6C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-110" windowWidth="24870" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-110" windowWidth="24870" windowHeight="14620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">hello,world    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>999.1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,7 +85,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024年5月13日22:25:15</t>
+    <t>FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -457,7 +457,7 @@
         <v>44907</v>
       </c>
       <c r="C2" s="2">
-        <v>44686.508495370399</v>
+        <v>44686.50849537037</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -465,10 +465,10 @@
         <v>13354681245</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>44686.508495370399</v>
+        <v>44686.50849537037</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -476,7 +476,7 @@
         <v>12.33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>44686.508495370399</v>
@@ -487,7 +487,7 @@
         <v>12.5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>44686.50849537037</v>
@@ -495,10 +495,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="b">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="2">
         <v>44686.50849537037</v>
@@ -508,8 +508,8 @@
       <c r="A7" s="3">
         <v>12.4999</v>
       </c>
-      <c r="B7" t="b">
-        <v>0</v>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C7" s="2">
         <v>44686.50849537037</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2">
         <v>44686.50849537037</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2">
         <v>44686.50849537037</v>
@@ -533,15 +533,15 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44687.50849537037</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D744546B-9D42-4218-B4CB-E8545560FC4B}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -579,13 +579,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>44907</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
+      <c r="C2" s="2">
+        <v>44686.50849537037</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">

--- a/abc/abc-excel-import-demo/src/main/resources/example01.xlsx
+++ b/abc/abc-excel-import-demo/src/main/resources/example01.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\abc-cloud\abc\abc-excel-import-demo\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1FC0FD-3194-4BA9-BD30-90A8608D6C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7849F1E5-FF24-4AA3-9463-81D70D7ABC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-110" windowWidth="24870" windowHeight="14620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-110" windowWidth="24870" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,43 +52,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">           13354681245      </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  是                       </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                      是    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            12.600000000      </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FALSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRUE</t>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,15 +103,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -424,25 +387,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D744546B-9D42-4218-B4CB-E8545560FC4B}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.4140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.58203125" customWidth="1"/>
-    <col min="3" max="3" width="26.58203125" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -450,162 +413,44 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
         <v>12</v>
       </c>
-      <c r="B2" s="1">
-        <v>44907</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>44686.50849537037</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>13354681245</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>44686.50849537037</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>12.33</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
-        <v>44686.508495370399</v>
+      <c r="C4" s="1">
+        <v>44686.50849537037</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44686.50849537037</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44686.50849537037</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>12.4999</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2">
-        <v>44686.50849537037</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44686.50849537037</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2">
-        <v>44686.50849537037</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44687.50849537037</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D744546B-9D42-4218-B4CB-E8545560FC4B}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44907</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44686.50849537037</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>